--- a/Data/Entities/OpenNGS/OpenNGS.Shop.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Shop.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EE\OpenNGS\ngs-packages\Data\Entities\OpenNGS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F403B2F-09EB-4693-AC7A-A9990FCC0891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64215" yWindow="1680" windowWidth="22905" windowHeight="16125" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="3" r:id="rId1"/>
@@ -24,12 +18,12 @@
     <definedName name="Rank" localSheetId="2">#REF!</definedName>
     <definedName name="Rank">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="211">
   <si>
     <t>Package</t>
   </si>
@@ -61,6 +55,9 @@
     <t>TableType</t>
   </si>
   <si>
+    <t>OpenNGS.Shop.Common</t>
+  </si>
+  <si>
     <t>GOOD_TAG_TYPE</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
     <t>货物标签类型</t>
   </si>
   <si>
+    <t>OpenNGS.Shop.Data</t>
+  </si>
+  <si>
     <t>Shop</t>
   </si>
   <si>
@@ -172,6 +172,9 @@
     <t>商店收购表</t>
   </si>
   <si>
+    <t>OpenNGS.Shop.Service</t>
+  </si>
+  <si>
     <t>ShopReq</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
   </si>
   <si>
     <t>获取商店信息的请求</t>
+  </si>
+  <si>
+    <t>CS</t>
   </si>
   <si>
     <t>ShopRsp</t>
@@ -594,16 +600,16 @@
         <sz val="10.5"/>
         <color rgb="FF19191A"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>R</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.199999999999999"/>
+        <sz val="10.2"/>
         <color rgb="FF19191A"/>
         <rFont val="Source Han Sans CN"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>efreshTime</t>
     </r>
@@ -667,40 +673,20 @@
   </si>
   <si>
     <t>返回类型</t>
-  </si>
-  <si>
-    <t>Common</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenNGS.Shop.Common</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenNGS.Shop.Data</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenNGS.Shop.Service</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -709,84 +695,222 @@
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF19191A"/>
       <name val="Source Han Sans CN"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Source Han Sans CN"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.199999999999999"/>
-      <color rgb="FF19191A"/>
-      <name val="Source Han Sans CN"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF19191A"/>
       <name val="Source Han Sans CN"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="10.2"/>
+      <color rgb="FF19191A"/>
+      <name val="Source Han Sans CN"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -801,8 +925,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
       </patternFill>
     </fill>
     <fill>
@@ -811,8 +935,194 @@
         <bgColor theme="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -822,14 +1132,14 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,36 +1147,36 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="9" tint="0.39988402966399123"/>
+        <color theme="9" tint="0.399884029663991"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="9" tint="0.39988402966399123"/>
+        <color theme="9" tint="0.399884029663991"/>
       </top>
       <bottom style="thin">
-        <color theme="9" tint="0.39988402966399123"/>
+        <color theme="9" tint="0.399884029663991"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,23 +1184,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="9" tint="0.39988402966399123"/>
+        <color theme="9" tint="0.399884029663991"/>
       </top>
       <bottom style="thin">
-        <color theme="9" tint="0.39988402966399123"/>
+        <color theme="9" tint="0.399884029663991"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="9" tint="0.39988402966399123"/>
+        <color theme="9" tint="0.399884029663991"/>
       </right>
       <top style="thin">
-        <color theme="9" tint="0.39988402966399123"/>
+        <color theme="9" tint="0.399884029663991"/>
       </top>
       <bottom style="thin">
-        <color theme="9" tint="0.39988402966399123"/>
+        <color theme="9" tint="0.399884029663991"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,9 +1245,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -978,7 +1530,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1039,1189 +1591,82 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="128">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+  <dxfs count="126">
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="0" tint="-0.14996795556505"/>
+          <bgColor theme="0" tint="-0.14996795556505"/>
         </patternFill>
       </fill>
       <border>
+        <left/>
         <right style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="0"/>
         </right>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -2231,27 +1676,578 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14996795556505"/>
+          <bgColor theme="0" tint="-0.14996795556505"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14996795556505"/>
+          <bgColor theme="0" tint="-0.14996795556505"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14996795556505"/>
+          <bgColor theme="0" tint="-0.14996795556505"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14996795556505"/>
+          <bgColor theme="0" tint="-0.14996795556505"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14996795556505"/>
+          <bgColor theme="0" tint="-0.14996795556505"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14996795556505"/>
+          <bgColor theme="0" tint="-0.14996795556505"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14996795556505"/>
+          <bgColor theme="0" tint="-0.14996795556505"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14996795556505"/>
+          <bgColor theme="0" tint="-0.14996795556505"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14996795556505"/>
+          <bgColor theme="0" tint="-0.14996795556505"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none"/>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <family val="2"/>
         <sz val="9"/>
         <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -2277,286 +2273,30 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <family val="2"/>
         <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_ "/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
         <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
       <border>
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -2567,339 +2307,1252 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <family val="2"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <family val="2"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <family val="2"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <family val="2"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <family val="2"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <family val="2"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <family val="2"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <family val="2"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <sz val="9"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399945066682943"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
         <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
         <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
         <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
         <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
         <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
         <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
         <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
         <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
         <charset val="134"/>
-        <scheme val="none"/>
-      </font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0_ "/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="9"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <fgColor rgb="FF000000" tint="0.799951170384838"/>
+          <bgColor rgb="FF000000" tint="0.799951170384838"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000" tint="0.799951170384838"/>
+          <bgColor rgb="FF000000" tint="0.799951170384838"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FF000000"/>
+      </font>
       <border>
-        <left/>
+        <top style="double">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
         <right style="thin">
-          <color theme="0"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="thin">
-          <color theme="0"/>
+          <color rgb="FF000000"/>
         </top>
         <bottom style="thin">
-          <color theme="0"/>
+          <color rgb="FF000000"/>
         </bottom>
+        <horizontal style="thin">
+          <color rgb="FF000000" tint="0.399945066682943"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799951170384838"/>
+          <bgColor theme="4" tint="0.799951170384838"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -2910,7 +3563,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -2938,504 +3591,428 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399945066682943"/>
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.79995117038483843"/>
-          <bgColor rgb="FF000000" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.79995117038483843"/>
-          <bgColor rgb="FF000000" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <border>
-        <top style="double">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <horizontal style="thin">
-          <color rgb="FF000000" tint="0.39994506668294322"/>
-        </horizontal>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Dark" pivot="0" count="7" xr9:uid="{A23A6A0A-29F2-439B-92E2-2009244044D1}">
-      <tableStyleElement type="wholeTable" dxfId="127"/>
-      <tableStyleElement type="headerRow" dxfId="126"/>
-      <tableStyleElement type="totalRow" dxfId="125"/>
-      <tableStyleElement type="firstColumn" dxfId="124"/>
-      <tableStyleElement type="lastColumn" dxfId="123"/>
-      <tableStyleElement type="firstRowStripe" dxfId="122"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="121"/>
+    <tableStyle name="TableStylePreset3_Dark" pivot="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="118"/>
+      <tableStyleElement type="headerRow" dxfId="117"/>
+      <tableStyleElement type="totalRow" dxfId="116"/>
+      <tableStyleElement type="firstColumn" dxfId="115"/>
+      <tableStyleElement type="lastColumn" dxfId="114"/>
+      <tableStyleElement type="firstRowStripe" dxfId="113"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="112"/>
     </tableStyle>
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="120"/>
-      <tableStyleElement type="headerRow" dxfId="119"/>
-      <tableStyleElement type="totalRow" dxfId="118"/>
-      <tableStyleElement type="firstColumn" dxfId="117"/>
-      <tableStyleElement type="lastColumn" dxfId="116"/>
-      <tableStyleElement type="firstRowStripe" dxfId="115"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="114"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="125"/>
+      <tableStyleElement type="headerRow" dxfId="124"/>
+      <tableStyleElement type="totalRow" dxfId="123"/>
+      <tableStyleElement type="firstColumn" dxfId="122"/>
+      <tableStyleElement type="lastColumn" dxfId="121"/>
+      <tableStyleElement type="firstRowStripe" dxfId="120"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="119"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Entities" displayName="Entities" ref="A1:J25" totalsRowShown="0">
-  <autoFilter ref="A1:J25" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Entities" displayName="Entities" ref="A1:J25" totalsRowShown="0">
+  <autoFilter ref="A1:J25"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Package" dataDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="112"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Group" dataDxfId="111"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type" dataDxfId="110"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="109"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Scope" dataDxfId="108"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PK" dataDxfId="107"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="SK" dataDxfId="106"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Index" dataDxfId="105"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="TableType" dataDxfId="104"/>
+    <tableColumn id="1" name="Package" dataDxfId="0"/>
+    <tableColumn id="2" name="Name" dataDxfId="1"/>
+    <tableColumn id="3" name="Group" dataDxfId="2"/>
+    <tableColumn id="4" name="Type" dataDxfId="3"/>
+    <tableColumn id="5" name="Description" dataDxfId="4"/>
+    <tableColumn id="6" name="Scope" dataDxfId="5"/>
+    <tableColumn id="7" name="PK" dataDxfId="6"/>
+    <tableColumn id="8" name="SK" dataDxfId="7"/>
+    <tableColumn id="9" name="Index" dataDxfId="8"/>
+    <tableColumn id="10" name="TableType" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="SellItemRsq" displayName="SellItemRsq" ref="A77:F78" totalsRowShown="0">
-  <autoFilter ref="A77:F78" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="SellItemRsq" displayName="SellItemRsq" ref="A77:F78" totalsRowShown="0">
+  <autoFilter ref="A77:F78"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Name" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Type" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Description" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Tag" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Attributes" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Scope" dataDxfId="56"/>
+    <tableColumn id="1" name="Name" dataDxfId="52"/>
+    <tableColumn id="2" name="Type" dataDxfId="53"/>
+    <tableColumn id="3" name="Description" dataDxfId="54"/>
+    <tableColumn id="4" name="Tag" dataDxfId="55"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="56"/>
+    <tableColumn id="6" name="Scope" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="GetShopInfoReq" displayName="GetShopInfoReq" ref="A82:F83" totalsRowShown="0">
-  <autoFilter ref="A82:F83" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="GetShopInfoReq" displayName="GetShopInfoReq" ref="A82:F83" totalsRowShown="0">
+  <autoFilter ref="A82:F83"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="GetShopInfoRsq" displayName="GetShopInfoRsq" ref="A87:F90" totalsRowShown="0">
-  <autoFilter ref="A87:F90" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="GetShopInfoRsq" displayName="GetShopInfoRsq" ref="A87:F90" totalsRowShown="0">
+  <autoFilter ref="A87:F90"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Name" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Type" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Description" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Tag" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Attributes" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Scope" dataDxfId="50"/>
+    <tableColumn id="1" name="Name" dataDxfId="58"/>
+    <tableColumn id="2" name="Type" dataDxfId="59"/>
+    <tableColumn id="3" name="Description" dataDxfId="60"/>
+    <tableColumn id="4" name="Tag" dataDxfId="61"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="62"/>
+    <tableColumn id="6" name="Scope" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="ShopSell" displayName="ShopSell" ref="A94:F98" totalsRowShown="0">
-  <autoFilter ref="A94:F98" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="ShopSell" displayName="ShopSell" ref="A94:F98" totalsRowShown="0">
+  <autoFilter ref="A94:F98"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Name" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Type" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Description" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Tag" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Attributes" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name" dataDxfId="64"/>
+    <tableColumn id="2" name="Type" dataDxfId="65"/>
+    <tableColumn id="3" name="Description" dataDxfId="66"/>
+    <tableColumn id="4" name="Tag" dataDxfId="67"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="68"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="SHELF_CONDITION_TYPE" displayName="SHELF_CONDITION_TYPE" ref="A3:F6" totalsRowShown="0">
-  <autoFilter ref="A3:F6" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="SHELF_CONDITION_TYPE" displayName="SHELF_CONDITION_TYPE" ref="A3:F6" totalsRowShown="0">
+  <autoFilter ref="A3:F6"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Name" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Type" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Description" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Tag" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="Attributes" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="Scope" dataDxfId="39"/>
+    <tableColumn id="1" name="Name" dataDxfId="70"/>
+    <tableColumn id="2" name="Type" dataDxfId="71"/>
+    <tableColumn id="3" name="Description" dataDxfId="72"/>
+    <tableColumn id="4" name="Tag" dataDxfId="73"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="74"/>
+    <tableColumn id="6" name="Scope" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="SHELF_STATE_TYPE" displayName="SHELF_STATE_TYPE" ref="A10:F12" totalsRowShown="0">
-  <autoFilter ref="A10:F12" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="SHELF_STATE_TYPE" displayName="SHELF_STATE_TYPE" ref="A10:F12" totalsRowShown="0">
+  <autoFilter ref="A10:F12"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Name" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Type" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="Description" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="Tag" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="Attributes" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="Scope" dataDxfId="33"/>
+    <tableColumn id="1" name="Name" dataDxfId="76"/>
+    <tableColumn id="2" name="Type" dataDxfId="77"/>
+    <tableColumn id="3" name="Description" dataDxfId="78"/>
+    <tableColumn id="4" name="Tag" dataDxfId="79"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="80"/>
+    <tableColumn id="6" name="Scope" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="GOOD_TAG_TYPE" displayName="GOOD_TAG_TYPE" ref="A16:F18" totalsRowShown="0">
-  <autoFilter ref="A16:F18" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="GOOD_TAG_TYPE" displayName="GOOD_TAG_TYPE" ref="A16:F18" totalsRowShown="0">
+  <autoFilter ref="A16:F18"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="Name" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="Type" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="Description" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="Tag" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="Attributes" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="Scope" dataDxfId="27"/>
+    <tableColumn id="1" name="Name" dataDxfId="82"/>
+    <tableColumn id="2" name="Type" dataDxfId="83"/>
+    <tableColumn id="3" name="Description" dataDxfId="84"/>
+    <tableColumn id="4" name="Tag" dataDxfId="85"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="86"/>
+    <tableColumn id="6" name="Scope" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="SHOP_RESULT_TYPE" displayName="SHOP_RESULT_TYPE" ref="A23:F28" totalsRowShown="0">
-  <autoFilter ref="A23:F28" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="SHOP_RESULT_TYPE" displayName="SHOP_RESULT_TYPE" ref="A23:F28" totalsRowShown="0">
+  <autoFilter ref="A23:F28"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="Name" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="Type" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="Description" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="Tag" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="Attributes" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="Scope" dataDxfId="21"/>
+    <tableColumn id="1" name="Name" dataDxfId="88"/>
+    <tableColumn id="2" name="Type" dataDxfId="89"/>
+    <tableColumn id="3" name="Description" dataDxfId="90"/>
+    <tableColumn id="4" name="Tag" dataDxfId="91"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="92"/>
+    <tableColumn id="6" name="Scope" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="ShopResultType" displayName="ShopResultType" ref="A43:F50" totalsRowShown="0">
-  <autoFilter ref="A43:F50" xr:uid="{00000000-0009-0000-0100-00001B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="ShopResultType" displayName="ShopResultType" ref="A43:F50" totalsRowShown="0">
+  <autoFilter ref="A43:F50"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="Name" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="Type" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="Description" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="Tag" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="Attributes" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="Scope" dataDxfId="15"/>
+    <tableColumn id="1" name="Name" dataDxfId="94"/>
+    <tableColumn id="2" name="Type" dataDxfId="95"/>
+    <tableColumn id="3" name="Description" dataDxfId="96"/>
+    <tableColumn id="4" name="Tag" dataDxfId="97"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="98"/>
+    <tableColumn id="6" name="Scope" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="ShelfStateType" displayName="ShelfStateType" ref="A33:F35" totalsRowShown="0">
-  <autoFilter ref="A33:F35" xr:uid="{00000000-0009-0000-0100-000022000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="ShelfStateType" displayName="ShelfStateType" ref="A33:F35" totalsRowShown="0">
+  <autoFilter ref="A33:F35"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Name" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="Type" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="Description" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="Tag" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="Attributes" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="Scope" dataDxfId="9"/>
+    <tableColumn id="1" name="Name" dataDxfId="100"/>
+    <tableColumn id="2" name="Type" dataDxfId="101"/>
+    <tableColumn id="3" name="Description" dataDxfId="102"/>
+    <tableColumn id="4" name="Tag" dataDxfId="103"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="104"/>
+    <tableColumn id="6" name="Scope" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Shop" displayName="Shop" ref="A3:F7" totalsRowShown="0">
-  <autoFilter ref="A3:F7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Shop" displayName="Shop" ref="A3:F7" totalsRowShown="0">
+  <autoFilter ref="A3:F7"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Type" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="101"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Tag" dataDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Attributes" dataDxfId="99"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Scope" dataDxfId="98"/>
+    <tableColumn id="1" name="Name" dataDxfId="10"/>
+    <tableColumn id="2" name="Type" dataDxfId="11"/>
+    <tableColumn id="3" name="Description" dataDxfId="12"/>
+    <tableColumn id="4" name="Tag" dataDxfId="13"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="14"/>
+    <tableColumn id="6" name="Scope" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="GoodTagType" displayName="GoodTagType" ref="A38:F40" totalsRowShown="0">
-  <autoFilter ref="A38:F40" xr:uid="{00000000-0009-0000-0100-000024000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="GoodTagType" displayName="GoodTagType" ref="A38:F40" totalsRowShown="0">
+  <autoFilter ref="A38:F40"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Name" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="Type" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="Description" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="Tag" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="Attributes" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="Scope" dataDxfId="3"/>
+    <tableColumn id="1" name="Name" dataDxfId="106"/>
+    <tableColumn id="2" name="Type" dataDxfId="107"/>
+    <tableColumn id="3" name="Description" dataDxfId="108"/>
+    <tableColumn id="4" name="Tag" dataDxfId="109"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="110"/>
+    <tableColumn id="6" name="Scope" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="BuyReq" displayName="BuyReq" ref="A24:F29" totalsRowShown="0">
-  <autoFilter ref="A24:F29" xr:uid="{00000000-0009-0000-0100-00001C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="BuyReq" displayName="BuyReq" ref="A24:F29" totalsRowShown="0">
+  <autoFilter ref="A24:F29"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="ShelfState" displayName="ShelfState" ref="A12:F16" totalsRowShown="0">
-  <autoFilter ref="A12:F16" xr:uid="{00000000-0009-0000-0100-00001D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="ShelfState" displayName="ShelfState" ref="A12:F16" totalsRowShown="0">
+  <autoFilter ref="A12:F16"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="ShopReq" displayName="ShopReq" ref="A2:F3" totalsRowShown="0">
-  <autoFilter ref="A2:F3" xr:uid="{00000000-0009-0000-0100-00001E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="ShopReq" displayName="ShopReq" ref="A2:F3" totalsRowShown="0">
+  <autoFilter ref="A2:F3"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="BuyRsp" displayName="BuyRsp" ref="A32:F34" totalsRowShown="0">
-  <autoFilter ref="A32:F34" xr:uid="{00000000-0009-0000-0100-00001F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="BuyRsp" displayName="BuyRsp" ref="A32:F34" totalsRowShown="0">
+  <autoFilter ref="A32:F34"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="GoodState" displayName="GoodState" ref="A19:F21" totalsRowShown="0">
-  <autoFilter ref="A19:F21" xr:uid="{00000000-0009-0000-0100-000020000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="GoodState" displayName="GoodState" ref="A19:F21" totalsRowShown="0">
+  <autoFilter ref="A19:F21"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="ShopRsp" displayName="ShopRsp" ref="A6:F9" totalsRowShown="0">
-  <autoFilter ref="A6:F9" xr:uid="{00000000-0009-0000-0100-000021000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="ShopRsp" displayName="ShopRsp" ref="A6:F9" totalsRowShown="0">
+  <autoFilter ref="A6:F9"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1900-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1900-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1900-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Shelf" displayName="Shelf" ref="A10:F23" totalsRowShown="0">
-  <autoFilter ref="A10:F23" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Shelf" displayName="Shelf" ref="A10:F23" totalsRowShown="0">
+  <autoFilter ref="A10:F23"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Type" dataDxfId="96"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description" dataDxfId="95"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Tag" dataDxfId="94"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Attributes" dataDxfId="93"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Scope" dataDxfId="92"/>
+    <tableColumn id="1" name="Name" dataDxfId="16"/>
+    <tableColumn id="2" name="Type" dataDxfId="17"/>
+    <tableColumn id="3" name="Description" dataDxfId="18"/>
+    <tableColumn id="4" name="Tag" dataDxfId="19"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="20"/>
+    <tableColumn id="6" name="Scope" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Good" displayName="Good" ref="A27:F42" totalsRowShown="0">
-  <autoFilter ref="A27:F42" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Good" displayName="Good" ref="A27:F42" totalsRowShown="0">
+  <autoFilter ref="A27:F42"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Name" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Type" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Tag" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Attributes" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Scope" dataDxfId="86"/>
+    <tableColumn id="1" name="Name" dataDxfId="22"/>
+    <tableColumn id="2" name="Type" dataDxfId="23"/>
+    <tableColumn id="3" name="Description" dataDxfId="24"/>
+    <tableColumn id="4" name="Tag" dataDxfId="25"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="26"/>
+    <tableColumn id="6" name="Scope" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="BuyItemInfo" displayName="BuyItemInfo" ref="A46:F50" totalsRowShown="0">
-  <autoFilter ref="A46:F50" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="BuyItemInfo" displayName="BuyItemInfo" ref="A46:F50" totalsRowShown="0">
+  <autoFilter ref="A46:F50"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Name" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Type" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Description" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Tag" dataDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Attributes" dataDxfId="81"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Scope" dataDxfId="80"/>
+    <tableColumn id="1" name="Name" dataDxfId="28"/>
+    <tableColumn id="2" name="Type" dataDxfId="29"/>
+    <tableColumn id="3" name="Description" dataDxfId="30"/>
+    <tableColumn id="4" name="Tag" dataDxfId="31"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="32"/>
+    <tableColumn id="6" name="Scope" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="SellItemInfo" displayName="SellItemInfo" ref="A54:F58" totalsRowShown="0">
-  <autoFilter ref="A54:F58" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="SellItemInfo" displayName="SellItemInfo" ref="A54:F58" totalsRowShown="0">
+  <autoFilter ref="A54:F58"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Tag"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Attributes"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Scope"/>
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Type"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Tag"/>
+    <tableColumn id="5" name="Attributes"/>
+    <tableColumn id="6" name="Scope"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="BuyItemReq" displayName="BuyItemReq" ref="A62:F63" totalsRowShown="0">
-  <autoFilter ref="A62:F63" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="BuyItemReq" displayName="BuyItemReq" ref="A62:F63" totalsRowShown="0">
+  <autoFilter ref="A62:F63"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Name" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Type" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Description" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Tag" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Attributes" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Scope" dataDxfId="74"/>
+    <tableColumn id="1" name="Name" dataDxfId="34"/>
+    <tableColumn id="2" name="Type" dataDxfId="35"/>
+    <tableColumn id="3" name="Description" dataDxfId="36"/>
+    <tableColumn id="4" name="Tag" dataDxfId="37"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="38"/>
+    <tableColumn id="6" name="Scope" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="SellItemReq" displayName="SellItemReq" ref="A67:F68" totalsRowShown="0">
-  <autoFilter ref="A67:F68" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="SellItemReq" displayName="SellItemReq" ref="A67:F68" totalsRowShown="0">
+  <autoFilter ref="A67:F68"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Name" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Type" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Description" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Tag" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Attributes" dataDxfId="69"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Scope" dataDxfId="68"/>
+    <tableColumn id="1" name="Name" dataDxfId="40"/>
+    <tableColumn id="2" name="Type" dataDxfId="41"/>
+    <tableColumn id="3" name="Description" dataDxfId="42"/>
+    <tableColumn id="4" name="Tag" dataDxfId="43"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="44"/>
+    <tableColumn id="6" name="Scope" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="BuyItemRsq" displayName="BuyItemRsq" ref="A72:F73" totalsRowShown="0">
-  <autoFilter ref="A72:F73" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="BuyItemRsq" displayName="BuyItemRsq" ref="A72:F73" totalsRowShown="0">
+  <autoFilter ref="A72:F73"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Name" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Type" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Description" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Tag" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Attributes" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Scope" dataDxfId="62"/>
+    <tableColumn id="1" name="Name" dataDxfId="46"/>
+    <tableColumn id="2" name="Type" dataDxfId="47"/>
+    <tableColumn id="3" name="Description" dataDxfId="48"/>
+    <tableColumn id="4" name="Tag" dataDxfId="49"/>
+    <tableColumn id="5" name="Attributes" dataDxfId="50"/>
+    <tableColumn id="6" name="Scope" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3693,28 +4270,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.58203125" customWidth="1"/>
-    <col min="2" max="2" width="30.9140625" customWidth="1"/>
+    <col min="1" max="1" width="25.5833333333333" customWidth="1"/>
+    <col min="2" max="2" width="30.9166666666667" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.8333333333333" customWidth="1"/>
     <col min="10" max="10" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" ht="16.5" spans="1:10">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -3746,602 +4323,602 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" ht="16.5" spans="1:10">
       <c r="A2" s="28" t="s">
-        <v>208</v>
+        <v>10</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:10">
       <c r="A3" s="28" t="s">
-        <v>208</v>
+        <v>10</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:10">
       <c r="A4" s="28" t="s">
-        <v>208</v>
+        <v>10</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="28" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:10">
+      <c r="A6" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="28" t="s">
+      <c r="E6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:10">
+      <c r="A7" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" s="29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:10">
+      <c r="A8" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:10">
+      <c r="A9" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>22</v>
-      </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:10">
+      <c r="A10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>22</v>
-      </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:10">
+      <c r="A11" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>22</v>
-      </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:10">
+      <c r="A12" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>22</v>
-      </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
       <c r="J12" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:10">
+      <c r="A13" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>22</v>
-      </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:10">
+      <c r="A14" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>22</v>
-      </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
       <c r="J14" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:10">
+      <c r="A15" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>22</v>
-      </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
       <c r="J15" s="29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:10">
       <c r="A16" s="28" t="s">
-        <v>208</v>
+        <v>10</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:10">
       <c r="A17" s="28" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
       <c r="J17" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:10">
+      <c r="A18" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>22</v>
-      </c>
       <c r="E18" s="30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:10">
       <c r="A19" s="28" t="s">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:10">
       <c r="A20" s="28" t="s">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E20" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>14</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:10">
       <c r="A21" s="28" t="s">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:10">
       <c r="A22" s="28" t="s">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:10">
       <c r="A23" s="28" t="s">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
       <c r="J23" s="28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:10">
       <c r="A24" s="28" t="s">
-        <v>208</v>
+        <v>10</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
       <c r="J24" s="28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4357,9 +4934,9 @@
       <c r="J25" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -4367,24 +4944,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:F98"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="27.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4398,10 +4976,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
@@ -4409,22 +4987,22 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4432,58 +5010,58 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D5" s="12">
         <v>2</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D6" s="12">
         <v>3</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D7" s="12">
         <v>4</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4497,10 +5075,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>5</v>
@@ -4508,238 +5086,238 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D11" s="12">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D12" s="12">
         <v>2</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D13" s="12">
         <v>3</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D14" s="12">
         <v>4</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D15" s="12">
         <v>5</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D16" s="12">
         <v>6</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D17" s="12">
         <v>7</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D18" s="12">
         <v>8</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D19" s="12">
         <v>9</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D20" s="12">
         <v>10</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D21" s="12">
         <v>11</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D22" s="12">
         <v>12</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D23" s="12">
         <v>13</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4750,9 +5328,9 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4766,10 +5344,10 @@
         <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>5</v>
@@ -4777,22 +5355,22 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D28" s="12">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4800,256 +5378,256 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D29" s="12">
         <v>2</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D30" s="12">
         <v>3</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D31" s="12">
         <v>4</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D32" s="12">
         <v>5</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D33" s="12">
         <v>6</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D34" s="12">
         <v>7</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D35" s="12">
         <v>8</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D36" s="12">
         <v>9</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D37" s="12">
         <v>10</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D38" s="12">
         <v>11</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D39" s="12">
         <v>12</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D40" s="12">
         <v>13</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D41" s="12">
         <v>14</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D42" s="12">
         <v>15</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5063,10 +5641,10 @@
         <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>5</v>
@@ -5074,78 +5652,78 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D50">
         <v>4</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5159,10 +5737,10 @@
         <v>4</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>5</v>
@@ -5170,78 +5748,78 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D57">
         <v>3</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D58">
         <v>4</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5255,10 +5833,10 @@
         <v>4</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F62" s="22" t="s">
         <v>5</v>
@@ -5266,27 +5844,27 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="23" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D63" s="25">
         <v>1</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F63" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5300,10 +5878,10 @@
         <v>4</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F67" s="22" t="s">
         <v>5</v>
@@ -5311,27 +5889,27 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D68" s="25">
         <v>1</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5345,10 +5923,10 @@
         <v>4</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F72" s="22" t="s">
         <v>5</v>
@@ -5356,27 +5934,27 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="23" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D73" s="25">
         <v>1</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F73" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5390,10 +5968,10 @@
         <v>4</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F77" s="22" t="s">
         <v>5</v>
@@ -5401,27 +5979,27 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="23" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D78" s="25">
         <v>1</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F78" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5435,10 +6013,10 @@
         <v>4</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F82" s="22" t="s">
         <v>5</v>
@@ -5446,27 +6024,27 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="23" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D83" s="25">
         <v>1</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5480,10 +6058,10 @@
         <v>4</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F87" s="22" t="s">
         <v>5</v>
@@ -5491,62 +6069,62 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D88" s="5">
         <v>1</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D89" s="5">
         <v>2</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D90" s="5">
         <v>3</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5560,10 +6138,10 @@
         <v>4</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F94" s="22" t="s">
         <v>5</v>
@@ -5571,88 +6149,88 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C95" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C96" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C97" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D97">
         <v>3</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C98" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D98">
         <v>4</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="D4:D7">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D24">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D42">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="12">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -5671,30 +6249,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:F92"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="44.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.16666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="40.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.5" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1666666666667" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.6666666666667" style="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5708,10 +6287,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
@@ -5719,58 +6298,58 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D4" s="12">
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D5" s="12">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D6" s="12">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5784,10 +6363,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>5</v>
@@ -5795,41 +6374,41 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D12" s="12">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5843,10 +6422,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>5</v>
@@ -5854,41 +6433,41 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D18" s="12">
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5902,10 +6481,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>5</v>
@@ -5913,92 +6492,92 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D24" s="12">
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D25" s="12">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D26" s="12">
         <v>2</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D27" s="12">
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D28" s="12">
         <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6012,10 +6591,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>5</v>
@@ -6023,41 +6602,41 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D34" s="12">
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D35" s="12">
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6071,10 +6650,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>5</v>
@@ -6082,41 +6661,41 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D39" s="12">
         <v>0</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D40" s="12">
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6130,135 +6709,135 @@
         <v>4</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17">
+    <row r="44" spans="1:6">
       <c r="A44" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D44" s="12">
         <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D45" s="12">
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D46" s="12">
         <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D47" s="12">
         <v>3</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="13" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D48" s="12">
         <v>4</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="14" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D49" s="12">
         <v>5</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="14" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D50" s="12">
         <v>6</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="15"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -6267,9 +6846,9 @@
       <c r="F92" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <headerFooter/>
   <tableParts count="7">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -6283,25 +6862,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.58203125" customWidth="1"/>
-    <col min="3" max="3" width="28.4140625" customWidth="1"/>
+    <col min="1" max="1" width="11.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.5833333333333" customWidth="1"/>
+    <col min="3" max="3" width="28.4166666666667" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6315,10 +6895,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
@@ -6326,31 +6906,31 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6364,10 +6944,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>5</v>
@@ -6375,64 +6955,64 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6446,92 +7026,92 @@
         <v>4</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17">
+    <row r="13" spans="1:6">
       <c r="A13" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D14" s="5">
         <v>2</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D15" s="5">
         <v>3</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D16" s="5">
         <v>4</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6545,55 +7125,55 @@
         <v>4</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17">
+    <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D21" s="5">
         <v>2</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6607,110 +7187,110 @@
         <v>4</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17">
+    <row r="25" spans="1:6">
       <c r="A25" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D26" s="5">
         <v>2</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="D27" s="5">
         <v>3</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D28" s="5">
         <v>4</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D29" s="5">
         <v>5</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6724,10 +7304,10 @@
         <v>4</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>5</v>
@@ -6735,44 +7315,44 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C34" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D34" s="5">
         <v>2</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <tableParts count="6">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/Data/Entities/OpenNGS/OpenNGS.Shop.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,20 @@
     <definedName name="Rank" localSheetId="2">#REF!</definedName>
     <definedName name="Rank">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -430,13 +443,13 @@
     <t>result</t>
   </si>
   <si>
+    <t>请求成功类型</t>
+  </si>
+  <si>
+    <t>要拉取的商店ID</t>
+  </si>
+  <si>
     <t>RESULT_TYPE</t>
-  </si>
-  <si>
-    <t>请求成功类型</t>
-  </si>
-  <si>
-    <t>要拉取的商店ID</t>
   </si>
   <si>
     <t>要拉取的货架ID</t>
@@ -678,7 +691,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -686,7 +699,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -754,34 +767,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -795,14 +780,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -842,6 +819,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -892,16 +884,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF19191A"/>
-      <name val="Source Han Sans CN"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.2"/>
@@ -937,55 +944,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,31 +968,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,6 +1004,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1063,7 +1028,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,7 +1076,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,6 +1107,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,21 +1254,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1290,6 +1282,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1348,148 +1355,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1593,52 +1600,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -3452,16 +3459,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.799951170384838"/>
-          <bgColor rgb="FF000000" tint="0.799951170384838"/>
+          <fgColor rgb="FF000000" tint="0.799981688894314"/>
+          <bgColor rgb="FF000000" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF000000" tint="0.799951170384838"/>
-          <bgColor rgb="FF000000" tint="0.799951170384838"/>
+          <fgColor rgb="FF000000" tint="0.799981688894314"/>
+          <bgColor rgb="FF000000" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3518,23 +3525,23 @@
           <color rgb="FF000000"/>
         </bottom>
         <horizontal style="thin">
-          <color rgb="FF000000" tint="0.399945066682943"/>
+          <color rgb="FF000000" tint="0.399975585192419"/>
         </horizontal>
       </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799951170384838"/>
-          <bgColor theme="4" tint="0.799951170384838"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799951170384838"/>
-          <bgColor theme="4" tint="0.799951170384838"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3591,13 +3598,13 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399945066682943"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStylePreset3_Dark" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Dark" pivot="0" count="7" xr9:uid="{A23A6A0A-29F2-439B-92E2-2009244044D1}">
       <tableStyleElement type="wholeTable" dxfId="118"/>
       <tableStyleElement type="headerRow" dxfId="117"/>
       <tableStyleElement type="totalRow" dxfId="116"/>
@@ -3606,7 +3613,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="113"/>
       <tableStyleElement type="firstColumnStripe" dxfId="112"/>
     </tableStyle>
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="125"/>
       <tableStyleElement type="headerRow" dxfId="124"/>
       <tableStyleElement type="totalRow" dxfId="123"/>
@@ -4278,8 +4285,8 @@
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4948,8 +4955,8 @@
   <sheetPr/>
   <dimension ref="A2:F98"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -5937,10 +5944,10 @@
         <v>134</v>
       </c>
       <c r="B73" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C73" s="25" t="s">
         <v>135</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>136</v>
       </c>
       <c r="D73" s="25">
         <v>1</v>
@@ -5982,10 +5989,10 @@
         <v>134</v>
       </c>
       <c r="B78" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="25" t="s">
         <v>135</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>136</v>
       </c>
       <c r="D78" s="25">
         <v>1</v>
@@ -6030,7 +6037,7 @@
         <v>66</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D83" s="25">
         <v>1</v>
@@ -6075,7 +6082,7 @@
         <v>66</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D88" s="5">
         <v>1</v>
@@ -6092,10 +6099,10 @@
         <v>134</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="D89" s="5">
         <v>2</v>
@@ -6254,7 +6261,7 @@
   <dimension ref="A2:F92"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -6961,7 +6968,7 @@
         <v>62</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -7321,7 +7328,7 @@
         <v>62</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>

--- a/Data/Entities/OpenNGS/OpenNGS.Shop.xlsx
+++ b/Data/Entities/OpenNGS/OpenNGS.Shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="210">
   <si>
     <t>Package</t>
   </si>
@@ -447,9 +447,6 @@
   </si>
   <si>
     <t>要拉取的商店ID</t>
-  </si>
-  <si>
-    <t>RESULT_TYPE</t>
   </si>
   <si>
     <t>要拉取的货架ID</t>
@@ -4286,7 +4283,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4955,8 +4952,8 @@
   <sheetPr/>
   <dimension ref="A2:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -6099,7 +6096,7 @@
         <v>134</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>135</v>
@@ -6120,7 +6117,7 @@
         <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D90" s="5">
         <v>3</v>
@@ -6156,7 +6153,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>66</v>
@@ -6176,13 +6173,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C96" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -6193,13 +6190,13 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D97">
         <v>3</v>
@@ -6210,13 +6207,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D98">
         <v>4</v>
@@ -6305,13 +6302,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="12">
         <v>0</v>
@@ -6322,13 +6319,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="12">
         <v>1</v>
@@ -6339,13 +6336,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="12">
         <v>2</v>
@@ -6381,13 +6378,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="12">
         <v>0</v>
@@ -6398,13 +6395,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" s="12">
         <v>1</v>
@@ -6440,13 +6437,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
@@ -6457,13 +6454,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D18" s="12">
         <v>1</v>
@@ -6499,13 +6496,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" s="12">
         <v>0</v>
@@ -6516,13 +6513,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" s="12">
         <v>1</v>
@@ -6533,13 +6530,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26" s="12">
         <v>2</v>
@@ -6550,13 +6547,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D27" s="12">
         <v>3</v>
@@ -6567,13 +6564,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D28" s="12">
         <v>4</v>
@@ -6584,7 +6581,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6609,13 +6606,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D34" s="12">
         <v>0</v>
@@ -6626,13 +6623,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D35" s="12">
         <v>1</v>
@@ -6643,7 +6640,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6674,7 +6671,7 @@
         <v>66</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D39" s="12">
         <v>0</v>
@@ -6685,13 +6682,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D40" s="12">
         <v>1</v>
@@ -6733,7 +6730,7 @@
         <v>66</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D44" s="12">
         <v>0</v>
@@ -6744,13 +6741,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D45" s="12">
         <v>1</v>
@@ -6761,13 +6758,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D46" s="12">
         <v>2</v>
@@ -6778,13 +6775,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D47" s="12">
         <v>3</v>
@@ -6795,13 +6792,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D48" s="12">
         <v>4</v>
@@ -6812,13 +6809,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D49" s="12">
         <v>5</v>
@@ -6829,13 +6826,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D50" s="12">
         <v>6</v>
@@ -6982,10 +6979,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="C8" t="s">
         <v>67</v>
@@ -7002,13 +6999,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" t="s">
         <v>188</v>
-      </c>
-      <c r="C9" t="s">
-        <v>189</v>
       </c>
       <c r="D9" s="5">
         <v>3</v>
@@ -7064,13 +7061,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="D14" s="5">
         <v>2</v>
@@ -7082,13 +7079,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>194</v>
       </c>
       <c r="D15" s="5">
         <v>3</v>
@@ -7100,13 +7097,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="D16" s="5">
         <v>4</v>
@@ -7143,13 +7140,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
@@ -7163,13 +7160,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" t="s">
         <v>192</v>
       </c>
-      <c r="B21" t="s">
-        <v>193</v>
-      </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D21" s="5">
         <v>2</v>
@@ -7211,7 +7208,7 @@
         <v>66</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -7231,7 +7228,7 @@
         <v>66</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D26" s="5">
         <v>2</v>
@@ -7243,13 +7240,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D27" s="5">
         <v>3</v>
@@ -7261,13 +7258,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D28" s="5">
         <v>4</v>
@@ -7279,13 +7276,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D29" s="5">
         <v>5</v>
@@ -7342,13 +7339,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="C34" t="s">
         <v>209</v>
-      </c>
-      <c r="C34" t="s">
-        <v>210</v>
       </c>
       <c r="D34" s="5">
         <v>2</v>
